--- a/models/Multi_dimentional_data_covar/09_Probleme_1.xlsx
+++ b/models/Multi_dimentional_data_covar/09_Probleme_1.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-4095" yWindow="930" windowWidth="15180" windowHeight="8835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Nutzungsbestimmungen</t>
   </si>
@@ -43,6 +48,9 @@
   </si>
   <si>
     <t>14.10.2016</t>
+  </si>
+  <si>
+    <t>Datum</t>
   </si>
 </sst>
 </file>
@@ -120,14 +128,14 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -135,23 +143,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -202,7 +210,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -504,21 +512,21 @@
   <dimension ref="B1:G324"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A308" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5:G5"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" customWidth="1"/>
-    <col min="7" max="7" width="31.5703125" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" customWidth="1"/>
+    <col min="7" max="7" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:7">
       <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
@@ -528,7 +536,7 @@
       <c r="F1" s="22"/>
       <c r="G1" s="22"/>
     </row>
-    <row r="2" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" s="3" customFormat="1">
       <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
@@ -538,7 +546,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7">
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
@@ -546,12 +554,12 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="20" customHeight="1">
       <c r="B5" s="18" t="s">
         <v>6</v>
       </c>
@@ -561,10 +569,13 @@
       <c r="F5" s="19"/>
       <c r="G5" s="20"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7">
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
@@ -581,10 +592,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7">
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7">
       <c r="B10" s="5">
         <v>36546</v>
       </c>
@@ -604,7 +615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7">
       <c r="B11" s="5">
         <v>36574</v>
       </c>
@@ -624,7 +635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7">
       <c r="B12" s="5">
         <v>36602</v>
       </c>
@@ -644,7 +655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7">
       <c r="B13" s="5">
         <v>36630</v>
       </c>
@@ -664,7 +675,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7">
       <c r="B14" s="5">
         <v>36665</v>
       </c>
@@ -684,7 +695,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7">
       <c r="B15" s="5">
         <v>36700</v>
       </c>
@@ -704,7 +715,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7">
       <c r="B16" s="5">
         <v>36735</v>
       </c>
@@ -724,7 +735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7">
       <c r="B17" s="5">
         <v>36763</v>
       </c>
@@ -744,7 +755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7">
       <c r="B18" s="5">
         <v>36791</v>
       </c>
@@ -764,7 +775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7">
       <c r="B19" s="5">
         <v>36819</v>
       </c>
@@ -784,7 +795,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7">
       <c r="B20" s="5">
         <v>36847</v>
       </c>
@@ -804,7 +815,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7">
       <c r="B21" s="5">
         <v>36875</v>
       </c>
@@ -824,7 +835,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7">
       <c r="B22" s="5">
         <v>36910</v>
       </c>
@@ -844,7 +855,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7">
       <c r="B23" s="5">
         <v>36938</v>
       </c>
@@ -864,7 +875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7">
       <c r="B24" s="5">
         <v>36966</v>
       </c>
@@ -884,7 +895,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7">
       <c r="B25" s="5">
         <v>36987</v>
       </c>
@@ -904,7 +915,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7">
       <c r="B26" s="5">
         <v>37029</v>
       </c>
@@ -924,7 +935,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7">
       <c r="B27" s="5">
         <v>37064</v>
       </c>
@@ -944,7 +955,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:7">
       <c r="B28" s="5">
         <v>37092</v>
       </c>
@@ -964,7 +975,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7">
       <c r="B29" s="5">
         <v>37127</v>
       </c>
@@ -984,7 +995,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:7">
       <c r="B30" s="5">
         <v>37148</v>
       </c>
@@ -1004,7 +1015,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7">
       <c r="B31" s="5">
         <v>37176</v>
       </c>
@@ -1024,7 +1035,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:7">
       <c r="B32" s="5">
         <v>37211</v>
       </c>
@@ -1044,7 +1055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7">
       <c r="B33" s="5">
         <v>37239</v>
       </c>
@@ -1064,7 +1075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:7">
       <c r="B34" s="5">
         <v>37267</v>
       </c>
@@ -1084,7 +1095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:7">
       <c r="B35" s="5">
         <v>37274</v>
       </c>
@@ -1104,7 +1115,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:7">
       <c r="B36" s="5">
         <v>37295</v>
       </c>
@@ -1124,7 +1135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:7">
       <c r="B37" s="5">
         <v>37309</v>
       </c>
@@ -1144,7 +1155,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:7">
       <c r="B38" s="5">
         <v>37323</v>
       </c>
@@ -1164,7 +1175,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:7">
       <c r="B39" s="5">
         <v>37337</v>
       </c>
@@ -1184,7 +1195,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:7">
       <c r="B40" s="5">
         <v>37358</v>
       </c>
@@ -1204,7 +1215,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:7">
       <c r="B41" s="5">
         <v>37372</v>
       </c>
@@ -1224,7 +1235,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:7">
       <c r="B42" s="5">
         <v>37386</v>
       </c>
@@ -1244,7 +1255,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:7">
       <c r="B43" s="5">
         <v>37407</v>
       </c>
@@ -1264,7 +1275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:7">
       <c r="B44" s="5">
         <v>37421</v>
       </c>
@@ -1284,7 +1295,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:7">
       <c r="B45" s="5">
         <v>37435</v>
       </c>
@@ -1304,7 +1315,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:7">
       <c r="B46" s="5">
         <v>37449</v>
       </c>
@@ -1324,7 +1335,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:7">
       <c r="B47" s="5">
         <v>37463</v>
       </c>
@@ -1344,7 +1355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:7">
       <c r="B48" s="5">
         <v>37477</v>
       </c>
@@ -1364,7 +1375,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:7">
       <c r="B49" s="5">
         <v>37484</v>
       </c>
@@ -1384,7 +1395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:7">
       <c r="B50" s="5">
         <v>37491</v>
       </c>
@@ -1404,7 +1415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:7">
       <c r="B51" s="5">
         <v>37498</v>
       </c>
@@ -1424,7 +1435,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:7">
       <c r="B52" s="5">
         <v>37505</v>
       </c>
@@ -1444,7 +1455,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:7">
       <c r="B53" s="5">
         <v>37512</v>
       </c>
@@ -1464,7 +1475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:7">
       <c r="B54" s="5">
         <v>37547</v>
       </c>
@@ -1484,7 +1495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:7">
       <c r="B55" s="5">
         <v>37575</v>
       </c>
@@ -1504,7 +1515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:7">
       <c r="B56" s="5">
         <v>37603</v>
       </c>
@@ -1524,7 +1535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:7">
       <c r="B57" s="5">
         <v>37645</v>
       </c>
@@ -1544,7 +1555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:7">
       <c r="B58" s="5">
         <v>37659</v>
       </c>
@@ -1564,7 +1575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:7">
       <c r="B59" s="5">
         <v>37673</v>
       </c>
@@ -1584,7 +1595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:7">
       <c r="B60" s="5">
         <v>37694</v>
       </c>
@@ -1604,7 +1615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:7">
       <c r="B61" s="5">
         <v>37708</v>
       </c>
@@ -1624,7 +1635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:7">
       <c r="B62" s="5">
         <v>37722</v>
       </c>
@@ -1644,7 +1655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:7">
       <c r="B63" s="5">
         <v>37743</v>
       </c>
@@ -1664,7 +1675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:7">
       <c r="B64" s="5">
         <v>37757</v>
       </c>
@@ -1684,7 +1695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:7">
       <c r="B65" s="5">
         <v>37778</v>
       </c>
@@ -1704,7 +1715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:7">
       <c r="B66" s="5">
         <v>37799</v>
       </c>
@@ -1724,7 +1735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:7">
       <c r="B67" s="5">
         <v>37820</v>
       </c>
@@ -1744,7 +1755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:7">
       <c r="B68" s="5">
         <v>37855</v>
       </c>
@@ -1764,7 +1775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:7">
       <c r="B69" s="5">
         <v>37876</v>
       </c>
@@ -1784,7 +1795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:7">
       <c r="B70" s="5">
         <v>37904</v>
       </c>
@@ -1804,7 +1815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:7">
       <c r="B71" s="5">
         <v>37918</v>
       </c>
@@ -1824,7 +1835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:7">
       <c r="B72" s="5">
         <v>37939</v>
       </c>
@@ -1844,7 +1855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:7">
       <c r="B73" s="5">
         <v>37953</v>
       </c>
@@ -1864,7 +1875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:7">
       <c r="B74" s="5">
         <v>37967</v>
       </c>
@@ -1884,7 +1895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:7">
       <c r="B75" s="5">
         <v>38002</v>
       </c>
@@ -1904,7 +1915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:7">
       <c r="B76" s="5">
         <v>38030</v>
       </c>
@@ -1924,7 +1935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:7">
       <c r="B77" s="5">
         <v>38051</v>
       </c>
@@ -1944,7 +1955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:7">
       <c r="B78" s="5">
         <v>38065</v>
       </c>
@@ -1964,7 +1975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:7">
       <c r="B79" s="5">
         <v>38079</v>
       </c>
@@ -1984,7 +1995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:7">
       <c r="B80" s="5">
         <v>38100</v>
       </c>
@@ -2004,7 +2015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:7">
       <c r="B81" s="5">
         <v>38121</v>
       </c>
@@ -2024,7 +2035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:7">
       <c r="B82" s="5">
         <v>38135</v>
       </c>
@@ -2044,7 +2055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:7">
       <c r="B83" s="5">
         <v>38163</v>
       </c>
@@ -2064,7 +2075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:7">
       <c r="B84" s="5">
         <v>38177</v>
       </c>
@@ -2084,7 +2095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:7">
       <c r="B85" s="5">
         <v>38191</v>
       </c>
@@ -2104,7 +2115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:7">
       <c r="B86" s="5">
         <v>38226</v>
       </c>
@@ -2124,7 +2135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:7">
       <c r="B87" s="5">
         <v>38254</v>
       </c>
@@ -2144,7 +2155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:7">
       <c r="B88" s="5">
         <v>38275</v>
       </c>
@@ -2164,7 +2175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:7">
       <c r="B89" s="5">
         <v>38289</v>
       </c>
@@ -2184,7 +2195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:7">
       <c r="B90" s="5">
         <v>38303</v>
       </c>
@@ -2204,7 +2215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:7">
       <c r="B91" s="5">
         <v>38317</v>
       </c>
@@ -2224,7 +2235,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:7">
       <c r="B92" s="5">
         <v>38331</v>
       </c>
@@ -2244,7 +2255,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:7">
       <c r="B93" s="5">
         <v>38366</v>
       </c>
@@ -2264,7 +2275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:7">
       <c r="B94" s="5">
         <v>38380</v>
       </c>
@@ -2284,7 +2295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:7">
       <c r="B95" s="5">
         <v>38408</v>
       </c>
@@ -2304,7 +2315,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:7">
       <c r="B96" s="5">
         <v>38429</v>
       </c>
@@ -2324,7 +2335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:7">
       <c r="B97" s="5">
         <v>38457</v>
       </c>
@@ -2344,7 +2355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:7">
       <c r="B98" s="5">
         <v>38471</v>
       </c>
@@ -2364,7 +2375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:7">
       <c r="B99" s="5">
         <v>38499</v>
       </c>
@@ -2384,7 +2395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:7">
       <c r="B100" s="5">
         <v>38513</v>
       </c>
@@ -2404,7 +2415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:7">
       <c r="B101" s="5">
         <v>38527</v>
       </c>
@@ -2424,7 +2435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:7">
       <c r="B102" s="5">
         <v>38541</v>
       </c>
@@ -2444,7 +2455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:7">
       <c r="B103" s="5">
         <v>38555</v>
       </c>
@@ -2464,7 +2475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:7">
       <c r="B104" s="5">
         <v>38569</v>
       </c>
@@ -2484,7 +2495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:7">
       <c r="B105" s="5">
         <v>38576</v>
       </c>
@@ -2504,7 +2515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:7">
       <c r="B106" s="5">
         <v>38583</v>
       </c>
@@ -2524,7 +2535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:7">
       <c r="B107" s="5">
         <v>38590</v>
       </c>
@@ -2544,7 +2555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:7">
       <c r="B108" s="5">
         <v>38597</v>
       </c>
@@ -2564,7 +2575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:7">
       <c r="B109" s="5">
         <v>38604</v>
       </c>
@@ -2584,7 +2595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:7">
       <c r="B110" s="5">
         <v>38618</v>
       </c>
@@ -2604,7 +2615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:7">
       <c r="B111" s="5">
         <v>38632</v>
       </c>
@@ -2624,7 +2635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:7">
       <c r="B112" s="5">
         <v>38639</v>
       </c>
@@ -2644,7 +2655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:7">
       <c r="B113" s="5">
         <v>38653</v>
       </c>
@@ -2664,7 +2675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:7">
       <c r="B114" s="5">
         <v>38667</v>
       </c>
@@ -2684,7 +2695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:7">
       <c r="B115" s="5">
         <v>38681</v>
       </c>
@@ -2704,7 +2715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:7">
       <c r="B116" s="5">
         <v>38695</v>
       </c>
@@ -2724,7 +2735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:7">
       <c r="B117" s="5">
         <v>38730</v>
       </c>
@@ -2744,7 +2755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:7">
       <c r="B118" s="5">
         <v>38744</v>
       </c>
@@ -2764,7 +2775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:7">
       <c r="B119" s="5">
         <v>38765</v>
       </c>
@@ -2784,7 +2795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:7">
       <c r="B120" s="5">
         <v>38786</v>
       </c>
@@ -2804,7 +2815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:7">
       <c r="B121" s="5">
         <v>38814</v>
       </c>
@@ -2824,7 +2835,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:7">
       <c r="B122" s="5">
         <v>38835</v>
       </c>
@@ -2844,7 +2855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:7">
       <c r="B123" s="5">
         <v>38856</v>
       </c>
@@ -2864,7 +2875,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:7">
       <c r="B124" s="5">
         <v>38884</v>
       </c>
@@ -2884,7 +2895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:7">
       <c r="B125" s="5">
         <v>38912</v>
       </c>
@@ -2904,7 +2915,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:7">
       <c r="B126" s="5">
         <v>38947</v>
       </c>
@@ -2924,7 +2935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:7">
       <c r="B127" s="5">
         <v>38961</v>
       </c>
@@ -2944,7 +2955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:7">
       <c r="B128" s="5">
         <v>38989</v>
       </c>
@@ -2964,7 +2975,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:7">
       <c r="B129" s="5">
         <v>39003</v>
       </c>
@@ -2984,7 +2995,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:7">
       <c r="B130" s="5">
         <v>39017</v>
       </c>
@@ -3004,7 +3015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:7">
       <c r="B131" s="5">
         <v>39031</v>
       </c>
@@ -3024,7 +3035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:7">
       <c r="B132" s="5">
         <v>39045</v>
       </c>
@@ -3044,7 +3055,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:7">
       <c r="B133" s="5">
         <v>39066</v>
       </c>
@@ -3064,7 +3075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:7">
       <c r="B134" s="5">
         <v>39094</v>
       </c>
@@ -3084,7 +3095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:7">
       <c r="B135" s="5">
         <v>39122</v>
       </c>
@@ -3104,7 +3115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:7">
       <c r="B136" s="5">
         <v>39143</v>
       </c>
@@ -3124,7 +3135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:7">
       <c r="B137" s="5">
         <v>39157</v>
       </c>
@@ -3144,7 +3155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:7">
       <c r="B138" s="5">
         <v>39171</v>
       </c>
@@ -3164,7 +3175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:7">
       <c r="B139" s="5">
         <v>39192</v>
       </c>
@@ -3184,7 +3195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:7">
       <c r="B140" s="5">
         <v>39220</v>
       </c>
@@ -3204,7 +3215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:7">
       <c r="B141" s="5">
         <v>39234</v>
       </c>
@@ -3224,7 +3235,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:7">
       <c r="B142" s="5">
         <v>39255</v>
       </c>
@@ -3244,7 +3255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:7">
       <c r="B143" s="5">
         <v>39283</v>
       </c>
@@ -3264,7 +3275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:7">
       <c r="B144" s="5">
         <v>39311</v>
       </c>
@@ -3284,7 +3295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:7">
       <c r="B145" s="5">
         <v>39339</v>
       </c>
@@ -3304,7 +3315,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:7">
       <c r="B146" s="5">
         <v>39360</v>
       </c>
@@ -3324,7 +3335,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:7">
       <c r="B147" s="5">
         <v>39374</v>
       </c>
@@ -3344,7 +3355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:7">
       <c r="B148" s="5">
         <v>39395</v>
       </c>
@@ -3364,7 +3375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:7">
       <c r="B149" s="5">
         <v>39409</v>
       </c>
@@ -3384,7 +3395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:7">
       <c r="B150" s="5">
         <v>39430</v>
       </c>
@@ -3404,7 +3415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:7">
       <c r="B151" s="5">
         <v>39458</v>
       </c>
@@ -3424,7 +3435,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:7">
       <c r="B152" s="5">
         <v>39486</v>
       </c>
@@ -3444,7 +3455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:7">
       <c r="B153" s="5">
         <v>39507</v>
       </c>
@@ -3464,7 +3475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:7">
       <c r="B154" s="5">
         <v>39521</v>
       </c>
@@ -3484,7 +3495,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:7">
       <c r="B155" s="5">
         <v>39542</v>
       </c>
@@ -3504,7 +3515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:7">
       <c r="B156" s="5">
         <v>39556</v>
       </c>
@@ -3524,7 +3535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:7">
       <c r="B157" s="5">
         <v>39577</v>
       </c>
@@ -3544,7 +3555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:7">
       <c r="B158" s="5">
         <v>39598</v>
       </c>
@@ -3564,7 +3575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:7">
       <c r="B159" s="5">
         <v>39612</v>
       </c>
@@ -3584,7 +3595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:7">
       <c r="B160" s="5">
         <v>39640</v>
       </c>
@@ -3604,7 +3615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:7">
       <c r="B161" s="5">
         <v>39675</v>
       </c>
@@ -3624,7 +3635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:7">
       <c r="B162" s="5">
         <v>39703</v>
       </c>
@@ -3644,7 +3655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:7">
       <c r="B163" s="5">
         <v>39731</v>
       </c>
@@ -3664,7 +3675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:7">
       <c r="B164" s="5">
         <v>39745</v>
       </c>
@@ -3684,7 +3695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:7">
       <c r="B165" s="5">
         <v>39759</v>
       </c>
@@ -3704,7 +3715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:7">
       <c r="B166" s="5">
         <v>39773</v>
       </c>
@@ -3724,7 +3735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:7">
       <c r="B167" s="5">
         <v>39794</v>
       </c>
@@ -3744,7 +3755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:7">
       <c r="B168" s="5">
         <v>39822</v>
       </c>
@@ -3764,7 +3775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:7">
       <c r="B169" s="5">
         <v>39843</v>
       </c>
@@ -3784,7 +3795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:7">
       <c r="B170" s="5">
         <v>39857</v>
       </c>
@@ -3804,7 +3815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:7">
       <c r="B171" s="5">
         <v>39878</v>
       </c>
@@ -3824,7 +3835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:7">
       <c r="B172" s="5">
         <v>39899</v>
       </c>
@@ -3844,7 +3855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:7">
       <c r="B173" s="5">
         <v>39927</v>
       </c>
@@ -3864,7 +3875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:7">
       <c r="B174" s="5">
         <v>39941</v>
       </c>
@@ -3884,7 +3895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:7">
       <c r="B175" s="5">
         <v>39962</v>
       </c>
@@ -3904,7 +3915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:7">
       <c r="B176" s="5">
         <v>39976</v>
       </c>
@@ -3924,7 +3935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:7">
       <c r="B177" s="5">
         <v>39997</v>
       </c>
@@ -3944,7 +3955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:7">
       <c r="B178" s="5">
         <v>40018</v>
       </c>
@@ -3964,7 +3975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:7">
       <c r="B179" s="5">
         <v>40032</v>
       </c>
@@ -3984,7 +3995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:7">
       <c r="B180" s="5">
         <v>40046</v>
       </c>
@@ -4004,7 +4015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:7">
       <c r="B181" s="5">
         <v>40053</v>
       </c>
@@ -4024,7 +4035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:7">
       <c r="B182" s="5">
         <v>40060</v>
       </c>
@@ -4044,7 +4055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:7">
       <c r="B183" s="5">
         <v>40067</v>
       </c>
@@ -4064,7 +4075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:7">
       <c r="B184" s="5">
         <v>40074</v>
       </c>
@@ -4084,7 +4095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:7">
       <c r="B185" s="5">
         <v>40088</v>
       </c>
@@ -4104,7 +4115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:7">
       <c r="B186" s="5">
         <v>40102</v>
       </c>
@@ -4124,7 +4135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:7">
       <c r="B187" s="5">
         <v>40116</v>
       </c>
@@ -4144,7 +4155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:7">
       <c r="B188" s="5">
         <v>40144</v>
       </c>
@@ -4164,7 +4175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:7">
       <c r="B189" s="5">
         <v>40158</v>
       </c>
@@ -4184,7 +4195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:7">
       <c r="B190" s="5">
         <v>40193</v>
       </c>
@@ -4204,7 +4215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:7">
       <c r="B191" s="5">
         <v>40207</v>
       </c>
@@ -4224,7 +4235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:7">
       <c r="B192" s="5">
         <v>40235</v>
       </c>
@@ -4244,7 +4255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:7">
       <c r="B193" s="5">
         <v>40249</v>
       </c>
@@ -4264,7 +4275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:7">
       <c r="B194" s="5">
         <v>40263</v>
       </c>
@@ -4284,7 +4295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:7">
       <c r="B195" s="5">
         <v>40291</v>
       </c>
@@ -4304,7 +4315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:7">
       <c r="B196" s="5">
         <v>40319</v>
       </c>
@@ -4324,7 +4335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:7">
       <c r="B197" s="5">
         <v>40333</v>
       </c>
@@ -4344,7 +4355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:7">
       <c r="B198" s="5">
         <v>40347</v>
       </c>
@@ -4362,7 +4373,7 @@
       </c>
       <c r="G198" s="6"/>
     </row>
-    <row r="199" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:7">
       <c r="B199" s="5">
         <v>40375</v>
       </c>
@@ -4382,7 +4393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:7">
       <c r="B200" s="5">
         <v>40417</v>
       </c>
@@ -4402,7 +4413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:7">
       <c r="B201" s="5">
         <v>40431</v>
       </c>
@@ -4422,7 +4433,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="202" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:7">
       <c r="B202" s="5">
         <v>40445</v>
       </c>
@@ -4442,7 +4453,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="203" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:7">
       <c r="B203" s="5">
         <v>40452</v>
       </c>
@@ -4462,7 +4473,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:7">
       <c r="B204" s="5">
         <v>40473</v>
       </c>
@@ -4482,7 +4493,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="205" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:7">
       <c r="B205" s="5">
         <v>40494</v>
       </c>
@@ -4502,7 +4513,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="206" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:7">
       <c r="B206" s="5">
         <v>40515</v>
       </c>
@@ -4522,7 +4533,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:7">
       <c r="B207" s="5">
         <v>40529</v>
       </c>
@@ -4542,7 +4553,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="208" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:7">
       <c r="B208" s="5">
         <v>40557</v>
       </c>
@@ -4562,7 +4573,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:7">
       <c r="B209" s="5">
         <v>40571</v>
       </c>
@@ -4582,7 +4593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="210" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:7">
       <c r="B210" s="5">
         <v>40585</v>
       </c>
@@ -4602,7 +4613,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="211" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:7">
       <c r="B211" s="5">
         <v>40599</v>
       </c>
@@ -4622,7 +4633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="212" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:7">
       <c r="B212" s="5">
         <v>40634</v>
       </c>
@@ -4642,7 +4653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="213" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:7">
       <c r="B213" s="5">
         <v>40648</v>
       </c>
@@ -4662,7 +4673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:7">
       <c r="B214" s="5">
         <v>40669</v>
       </c>
@@ -4682,7 +4693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:7">
       <c r="B215" s="5">
         <v>40690</v>
       </c>
@@ -4702,7 +4713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="216" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:7">
       <c r="B216" s="5">
         <v>40704</v>
       </c>
@@ -4722,7 +4733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:7">
       <c r="B217" s="5">
         <v>40739</v>
       </c>
@@ -4742,7 +4753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:7">
       <c r="B218" s="5">
         <v>40767</v>
       </c>
@@ -4762,7 +4773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:7">
       <c r="B219" s="5">
         <v>40795</v>
       </c>
@@ -4782,7 +4793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:7">
       <c r="B220" s="5">
         <v>40809</v>
       </c>
@@ -4802,7 +4813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="221" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:7">
       <c r="B221" s="5">
         <v>40830</v>
       </c>
@@ -4822,7 +4833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:7">
       <c r="B222" s="5">
         <v>40844</v>
       </c>
@@ -4842,7 +4853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:7">
       <c r="B223" s="5">
         <v>40858</v>
       </c>
@@ -4862,7 +4873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:7">
       <c r="B224" s="5">
         <v>40872</v>
       </c>
@@ -4882,7 +4893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:7">
       <c r="B225" s="5">
         <v>40893</v>
       </c>
@@ -4902,7 +4913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:7">
       <c r="B226" s="5">
         <v>40921</v>
       </c>
@@ -4922,7 +4933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:7">
       <c r="B227" s="5">
         <v>40935</v>
       </c>
@@ -4942,7 +4953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:7">
       <c r="B228" s="5">
         <v>40949</v>
       </c>
@@ -4962,7 +4973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:7">
       <c r="B229" s="5">
         <v>40977</v>
       </c>
@@ -4982,7 +4993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="230" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:7">
       <c r="B230" s="5">
         <v>40998</v>
       </c>
@@ -5002,7 +5013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:7">
       <c r="B231" s="5">
         <v>41026</v>
       </c>
@@ -5022,7 +5033,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="232" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:7">
       <c r="B232" s="5">
         <v>41054</v>
       </c>
@@ -5042,7 +5053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="233" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:7">
       <c r="B233" s="5">
         <v>41075</v>
       </c>
@@ -5062,7 +5073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:7" s="4" customFormat="1">
       <c r="B234" s="5">
         <v>41103</v>
       </c>
@@ -5082,7 +5093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:7" s="4" customFormat="1">
       <c r="B235" s="5">
         <v>41145</v>
       </c>
@@ -5102,7 +5113,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:7" s="4" customFormat="1">
       <c r="B236" s="5">
         <v>41166</v>
       </c>
@@ -5122,7 +5133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:7">
       <c r="B237" s="7">
         <v>41180</v>
       </c>
@@ -5142,7 +5153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:7">
       <c r="B238" s="7">
         <v>41193</v>
       </c>
@@ -5162,7 +5173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:7">
       <c r="B239" s="7">
         <v>41208</v>
       </c>
@@ -5182,7 +5193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:7">
       <c r="B240" s="7">
         <v>41229</v>
       </c>
@@ -5202,7 +5213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:7">
       <c r="B241" s="9">
         <v>41243</v>
       </c>
@@ -5222,7 +5233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:7">
       <c r="B242" s="9">
         <v>41257</v>
       </c>
@@ -5242,7 +5253,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="243" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:7">
       <c r="B243" s="9">
         <v>41285</v>
       </c>
@@ -5262,7 +5273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:7">
       <c r="B244" s="9">
         <v>41299</v>
       </c>
@@ -5282,7 +5293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:7">
       <c r="B245" s="9">
         <v>41327</v>
       </c>
@@ -5302,7 +5313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:7">
       <c r="B246" s="9">
         <v>41341</v>
       </c>
@@ -5322,7 +5333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="247" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:7">
       <c r="B247" s="9">
         <v>41355</v>
       </c>
@@ -5342,7 +5353,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="248" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:7">
       <c r="B248" s="9">
         <v>41376</v>
       </c>
@@ -5362,7 +5373,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="249" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:7">
       <c r="B249" s="9">
         <v>41390</v>
       </c>
@@ -5382,7 +5393,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="250" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:7">
       <c r="B250" s="9">
         <v>41411</v>
       </c>
@@ -5402,7 +5413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:7">
       <c r="B251" s="9">
         <v>41432</v>
       </c>
@@ -5422,7 +5433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="252" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:7">
       <c r="B252" s="9">
         <v>41453</v>
       </c>
@@ -5442,7 +5453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="253" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:7">
       <c r="B253" s="9">
         <v>41467</v>
       </c>
@@ -5462,7 +5473,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="254" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:7">
       <c r="B254" s="9">
         <v>41488</v>
       </c>
@@ -5482,7 +5493,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="255" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:7">
       <c r="B255" s="9">
         <v>41502</v>
       </c>
@@ -5502,7 +5513,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:7">
       <c r="B256" s="9">
         <v>41509</v>
       </c>
@@ -5522,7 +5533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="257" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:7">
       <c r="B257" s="9">
         <v>41515</v>
       </c>
@@ -5542,7 +5553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="258" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:7">
       <c r="B258" s="9">
         <v>41522</v>
       </c>
@@ -5562,7 +5573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="259" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:7" s="11" customFormat="1">
       <c r="B259" s="5">
         <v>41530</v>
       </c>
@@ -5582,7 +5593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="260" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:7">
       <c r="B260" s="9">
         <v>41544</v>
       </c>
@@ -5602,7 +5613,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="261" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:7">
       <c r="B261" s="9">
         <v>41565</v>
       </c>
@@ -5622,7 +5633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="262" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:7">
       <c r="B262" s="9">
         <v>41586</v>
       </c>
@@ -5642,7 +5653,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="263" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:7">
       <c r="B263" s="9">
         <v>41607</v>
       </c>
@@ -5662,7 +5673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="264" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:7">
       <c r="B264" s="9">
         <v>41621</v>
       </c>
@@ -5682,7 +5693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="265" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:7">
       <c r="B265" s="12">
         <v>41656</v>
       </c>
@@ -5702,7 +5713,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="266" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:7">
       <c r="B266" s="9">
         <v>41670</v>
       </c>
@@ -5722,7 +5733,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="267" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:7">
       <c r="B267" s="9">
         <v>41691</v>
       </c>
@@ -5742,7 +5753,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="268" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:7">
       <c r="B268" s="12">
         <v>41712</v>
       </c>
@@ -5762,7 +5773,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="269" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:7">
       <c r="B269" s="12">
         <v>41726</v>
       </c>
@@ -5782,7 +5793,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="270" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:7">
       <c r="B270" s="9">
         <v>41740</v>
       </c>
@@ -5802,7 +5813,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="271" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:7">
       <c r="B271" s="9">
         <v>41768</v>
       </c>
@@ -5822,7 +5833,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="272" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:7">
       <c r="B272" s="9">
         <v>41795</v>
       </c>
@@ -5842,7 +5853,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="273" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:7">
       <c r="B273" s="9">
         <v>41817</v>
       </c>
@@ -5862,7 +5873,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="274" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:7">
       <c r="B274" s="9">
         <v>41838</v>
       </c>
@@ -5882,7 +5893,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="275" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:7">
       <c r="B275" s="9">
         <v>41873</v>
       </c>
@@ -5902,7 +5913,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="276" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:7">
       <c r="B276" s="9">
         <v>41887</v>
       </c>
@@ -5922,7 +5933,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="277" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:7">
       <c r="B277" s="9">
         <v>41908</v>
       </c>
@@ -5942,7 +5953,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="278" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:7">
       <c r="B278" s="9">
         <v>41922</v>
       </c>
@@ -5962,7 +5973,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="279" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:7">
       <c r="B279" s="9">
         <v>41936</v>
       </c>
@@ -5982,7 +5993,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="280" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:7">
       <c r="B280" s="9">
         <v>41957</v>
       </c>
@@ -6002,7 +6013,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="281" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:7">
       <c r="B281" s="9">
         <v>41971</v>
       </c>
@@ -6022,7 +6033,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="282" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:7">
       <c r="B282" s="9">
         <v>41985</v>
       </c>
@@ -6042,7 +6053,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="283" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:7">
       <c r="B283" s="9">
         <v>42020</v>
       </c>
@@ -6062,7 +6073,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="284" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:7">
       <c r="B284" s="9">
         <v>42034</v>
       </c>
@@ -6082,7 +6093,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="285" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:7">
       <c r="B285" s="9">
         <v>42062</v>
       </c>
@@ -6102,7 +6113,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="286" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:7">
       <c r="B286" s="9">
         <v>42076</v>
       </c>
@@ -6122,7 +6133,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="287" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:7">
       <c r="B287" s="9">
         <v>42090</v>
       </c>
@@ -6142,7 +6153,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="288" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:7">
       <c r="B288" s="9">
         <v>42111</v>
       </c>
@@ -6162,7 +6173,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="289" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:7">
       <c r="B289" s="9">
         <v>42146</v>
       </c>
@@ -6182,7 +6193,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="290" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:7">
       <c r="B290" s="9">
         <v>42167</v>
       </c>
@@ -6202,7 +6213,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="291" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:7">
       <c r="B291" s="9">
         <v>42188</v>
       </c>
@@ -6222,7 +6233,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="292" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:7">
       <c r="B292" s="9">
         <v>42209</v>
       </c>
@@ -6242,7 +6253,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="293" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:7">
       <c r="B293" s="12">
         <v>42237</v>
       </c>
@@ -6262,7 +6273,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="294" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:7">
       <c r="B294" s="9">
         <v>42258</v>
       </c>
@@ -6282,7 +6293,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="295" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:7">
       <c r="B295" s="5">
         <v>42272</v>
       </c>
@@ -6302,7 +6313,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="296" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:7">
       <c r="B296" s="9">
         <v>42286</v>
       </c>
@@ -6322,7 +6333,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="297" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:7">
       <c r="B297" s="9">
         <v>42300</v>
       </c>
@@ -6342,7 +6353,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="298" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:7">
       <c r="B298" s="9">
         <v>42321</v>
       </c>
@@ -6362,7 +6373,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="299" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:7">
       <c r="B299" s="9">
         <v>42335</v>
       </c>
@@ -6382,7 +6393,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="300" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:7">
       <c r="B300" s="9">
         <v>42349</v>
       </c>
@@ -6402,7 +6413,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="301" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:7">
       <c r="B301" s="9">
         <v>42384</v>
       </c>
@@ -6422,7 +6433,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="302" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:7">
       <c r="B302" s="9">
         <v>42398</v>
       </c>
@@ -6442,7 +6453,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="303" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:7">
       <c r="B303" s="9">
         <v>42419</v>
       </c>
@@ -6462,7 +6473,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="304" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:7">
       <c r="B304" s="9">
         <v>42447</v>
       </c>
@@ -6482,7 +6493,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="305" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:7">
       <c r="B305" s="9">
         <v>42468</v>
       </c>
@@ -6502,7 +6513,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="306" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:7">
       <c r="B306" s="9">
         <v>42482</v>
       </c>
@@ -6522,7 +6533,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="307" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:7">
       <c r="B307" s="9">
         <v>42503</v>
       </c>
@@ -6542,7 +6553,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="308" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:7">
       <c r="B308" s="9">
         <v>42524</v>
       </c>
@@ -6562,7 +6573,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="309" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:7">
       <c r="B309" s="9">
         <v>42545</v>
       </c>
@@ -6582,7 +6593,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="310" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:7">
       <c r="B310" s="9">
         <v>42559</v>
       </c>
@@ -6602,7 +6613,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="311" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:7">
       <c r="B311" s="9">
         <v>42573</v>
       </c>
@@ -6622,7 +6633,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="312" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:7">
       <c r="B312" s="9">
         <v>42594</v>
       </c>
@@ -6642,7 +6653,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="313" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:7">
       <c r="B313" s="9">
         <v>42636</v>
       </c>
@@ -6662,7 +6673,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="314" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:7">
       <c r="B314" s="17" t="s">
         <v>8</v>
       </c>
@@ -6682,7 +6693,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="315" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:7">
       <c r="B315" s="9">
         <v>42671</v>
       </c>
@@ -6702,7 +6713,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="316" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:7">
       <c r="B316" s="9">
         <v>42685</v>
       </c>
@@ -6722,7 +6733,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="317" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:7">
       <c r="B317" s="9">
         <v>42699</v>
       </c>
@@ -6742,7 +6753,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="318" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:7">
       <c r="B318" s="9">
         <v>42713</v>
       </c>
@@ -6762,7 +6773,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="319" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:7">
       <c r="B319" s="9">
         <v>42748</v>
       </c>
@@ -6782,7 +6793,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="320" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:7">
       <c r="B320" s="9">
         <v>42762</v>
       </c>
@@ -6802,7 +6813,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="321" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:7">
       <c r="B321" s="12">
         <v>42783</v>
       </c>
@@ -6822,7 +6833,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="322" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:7">
       <c r="B322" s="9">
         <v>42804</v>
       </c>
@@ -6842,7 +6853,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="323" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:7">
       <c r="B323" s="9">
         <v>42832</v>
       </c>
@@ -6862,7 +6873,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="324" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="324" spans="2:7">
       <c r="B324" s="9">
         <v>42853</v>
       </c>
@@ -6891,6 +6902,11 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6900,11 +6916,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6914,10 +6935,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>